--- a/src/afkRandom.xlsx
+++ b/src/afkRandom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0672A7DE-8FE5-4546-BDE9-11FAA38F62DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146B63E7-42DE-4829-AEAB-91876DCEA408}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -729,10 +729,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -770,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -788,36 +785,22 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
 </sheetInterline>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -825,44 +808,58 @@
 </settings>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/src/afkRandom.xlsx
+++ b/src/afkRandom.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20359"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146B63E7-42DE-4829-AEAB-91876DCEA408}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E7110D-F67E-42DE-BA42-2E41A5747A95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -743,6 +743,15 @@
       <c r="M4">
         <v>1</v>
       </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -769,9 +778,6 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
       <c r="J5">
         <v>10</v>
       </c>
@@ -779,6 +785,191 @@
         <v>2</v>
       </c>
       <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1440</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1440</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1440</v>
+      </c>
+      <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1440</v>
+      </c>
+      <c r="D9">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
         <v>1</v>
       </c>
     </row>
@@ -790,17 +981,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -808,58 +1008,49 @@
 </settings>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/src/afkRandom.xlsx
+++ b/src/afkRandom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E7110D-F67E-42DE-BA42-2E41A5747A95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA671B6-6125-460B-AA20-3154B98427B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1440</v>
+        <v>500</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -761,9 +761,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1440</v>
+        <v>500</v>
       </c>
       <c r="D5">
+        <f>D4+5</f>
         <v>6</v>
       </c>
       <c r="E5">
@@ -805,13 +806,14 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1440</v>
+        <v>500</v>
       </c>
       <c r="D6">
+        <f>D5+5</f>
         <v>11</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -849,13 +851,14 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1440</v>
+        <v>500</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <f t="shared" ref="D7:D15" si="0">D6+5</f>
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -893,13 +896,14 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1440</v>
+        <v>500</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -937,13 +941,14 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1440</v>
+        <v>500</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -970,6 +975,4232 @@
         <v>2</v>
       </c>
       <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>500</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E10">
+        <v>35</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>500</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>500</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E12">
+        <v>45</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>500</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>500</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E14">
+        <v>55</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>500</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>500</v>
+      </c>
+      <c r="D16">
+        <f>D15+5</f>
+        <v>61</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>500</v>
+      </c>
+      <c r="D17">
+        <f>D16+5</f>
+        <v>66</v>
+      </c>
+      <c r="E17">
+        <v>70</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>10</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>500</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18" si="1">D17+5</f>
+        <v>71</v>
+      </c>
+      <c r="E18">
+        <v>75</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>500</v>
+      </c>
+      <c r="D19">
+        <f>D18+5</f>
+        <v>76</v>
+      </c>
+      <c r="E19">
+        <v>80</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <v>10</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>500</v>
+      </c>
+      <c r="D20">
+        <f>D19+5</f>
+        <v>81</v>
+      </c>
+      <c r="E20">
+        <v>85</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>500</v>
+      </c>
+      <c r="D21">
+        <f>D20+5</f>
+        <v>86</v>
+      </c>
+      <c r="E21">
+        <v>90</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22">
+        <f>D21+5</f>
+        <v>91</v>
+      </c>
+      <c r="E22">
+        <v>95</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>10</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>500</v>
+      </c>
+      <c r="D23">
+        <f>D22+5</f>
+        <v>96</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>6</v>
+      </c>
+      <c r="N23">
+        <v>10</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>500</v>
+      </c>
+      <c r="C24">
+        <v>1440</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>10</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>500</v>
+      </c>
+      <c r="C25">
+        <v>1440</v>
+      </c>
+      <c r="D25">
+        <f>D24+5</f>
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>500</v>
+      </c>
+      <c r="C26">
+        <v>1440</v>
+      </c>
+      <c r="D26">
+        <f>D25+5</f>
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>10</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>500</v>
+      </c>
+      <c r="C27">
+        <v>1440</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:D35" si="2">D26+5</f>
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>10</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>500</v>
+      </c>
+      <c r="C28">
+        <v>1440</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <v>10</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="Q28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>500</v>
+      </c>
+      <c r="C29">
+        <v>1440</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>6</v>
+      </c>
+      <c r="N29">
+        <v>10</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>500</v>
+      </c>
+      <c r="C30">
+        <v>1440</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>35</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>10</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>500</v>
+      </c>
+      <c r="C31">
+        <v>1440</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="E31">
+        <v>40</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>10</v>
+      </c>
+      <c r="O31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>500</v>
+      </c>
+      <c r="C32">
+        <v>1440</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="E32">
+        <v>45</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>10</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="Q32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>500</v>
+      </c>
+      <c r="C33">
+        <v>1440</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="E33">
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33">
+        <v>10</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>500</v>
+      </c>
+      <c r="C34">
+        <v>1440</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="E34">
+        <v>55</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>5</v>
+      </c>
+      <c r="N34">
+        <v>10</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="Q34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>500</v>
+      </c>
+      <c r="C35">
+        <v>1440</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="E35">
+        <v>60</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>6</v>
+      </c>
+      <c r="N35">
+        <v>10</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>500</v>
+      </c>
+      <c r="C36">
+        <v>1440</v>
+      </c>
+      <c r="D36">
+        <f>D35+5</f>
+        <v>61</v>
+      </c>
+      <c r="E36">
+        <v>65</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>10</v>
+      </c>
+      <c r="O36">
+        <v>2</v>
+      </c>
+      <c r="Q36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>500</v>
+      </c>
+      <c r="C37">
+        <v>1440</v>
+      </c>
+      <c r="D37">
+        <f>D36+5</f>
+        <v>66</v>
+      </c>
+      <c r="E37">
+        <v>70</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>10</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>500</v>
+      </c>
+      <c r="C38">
+        <v>1440</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="3">D37+5</f>
+        <v>71</v>
+      </c>
+      <c r="E38">
+        <v>75</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>10</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>10</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>500</v>
+      </c>
+      <c r="C39">
+        <v>1440</v>
+      </c>
+      <c r="D39">
+        <f>D38+5</f>
+        <v>76</v>
+      </c>
+      <c r="E39">
+        <v>80</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>4</v>
+      </c>
+      <c r="N39">
+        <v>10</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="Q39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>500</v>
+      </c>
+      <c r="C40">
+        <v>1440</v>
+      </c>
+      <c r="D40">
+        <f>D39+5</f>
+        <v>81</v>
+      </c>
+      <c r="E40">
+        <v>85</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>5</v>
+      </c>
+      <c r="N40">
+        <v>10</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="Q40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>500</v>
+      </c>
+      <c r="C41">
+        <v>1440</v>
+      </c>
+      <c r="D41">
+        <f>D40+5</f>
+        <v>86</v>
+      </c>
+      <c r="E41">
+        <v>90</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>10</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>6</v>
+      </c>
+      <c r="N41">
+        <v>10</v>
+      </c>
+      <c r="O41">
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>500</v>
+      </c>
+      <c r="C42">
+        <v>1440</v>
+      </c>
+      <c r="D42">
+        <f>D41+5</f>
+        <v>91</v>
+      </c>
+      <c r="E42">
+        <v>95</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>5</v>
+      </c>
+      <c r="N42">
+        <v>10</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="Q42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>500</v>
+      </c>
+      <c r="C43">
+        <v>1440</v>
+      </c>
+      <c r="D43">
+        <f>D42+5</f>
+        <v>96</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>6</v>
+      </c>
+      <c r="N43">
+        <v>10</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1440</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>10</v>
+      </c>
+      <c r="O44">
+        <v>2</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1440</v>
+      </c>
+      <c r="D45">
+        <f>D44+5</f>
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>10</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>10</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="Q45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1440</v>
+      </c>
+      <c r="D46">
+        <f>D45+5</f>
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>15</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>10</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+      <c r="N46">
+        <v>10</v>
+      </c>
+      <c r="O46">
+        <v>2</v>
+      </c>
+      <c r="Q46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1440</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47:D55" si="4">D46+5</f>
+        <v>16</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>10</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="N47">
+        <v>10</v>
+      </c>
+      <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="Q47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1440</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="E48">
+        <v>25</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>5</v>
+      </c>
+      <c r="N48">
+        <v>10</v>
+      </c>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="Q48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1440</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="E49">
+        <v>30</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>10</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>6</v>
+      </c>
+      <c r="N49">
+        <v>10</v>
+      </c>
+      <c r="O49">
+        <v>2</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1440</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="E50">
+        <v>35</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>10</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>10</v>
+      </c>
+      <c r="O50">
+        <v>2</v>
+      </c>
+      <c r="Q50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1440</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="E51">
+        <v>40</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>10</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>10</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+      <c r="Q51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1440</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="E52">
+        <v>45</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>10</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>10</v>
+      </c>
+      <c r="O52">
+        <v>2</v>
+      </c>
+      <c r="Q52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1440</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="E53">
+        <v>50</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>10</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>4</v>
+      </c>
+      <c r="N53">
+        <v>10</v>
+      </c>
+      <c r="O53">
+        <v>2</v>
+      </c>
+      <c r="Q53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1440</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="E54">
+        <v>55</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>10</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>5</v>
+      </c>
+      <c r="N54">
+        <v>10</v>
+      </c>
+      <c r="O54">
+        <v>2</v>
+      </c>
+      <c r="Q54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1440</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="E55">
+        <v>60</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>10</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>6</v>
+      </c>
+      <c r="N55">
+        <v>10</v>
+      </c>
+      <c r="O55">
+        <v>2</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1440</v>
+      </c>
+      <c r="D56">
+        <f>D55+5</f>
+        <v>61</v>
+      </c>
+      <c r="E56">
+        <v>65</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>10</v>
+      </c>
+      <c r="O56">
+        <v>2</v>
+      </c>
+      <c r="Q56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1440</v>
+      </c>
+      <c r="D57">
+        <f>D56+5</f>
+        <v>66</v>
+      </c>
+      <c r="E57">
+        <v>70</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>10</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>10</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+      <c r="Q57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1440</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ref="D58" si="5">D57+5</f>
+        <v>71</v>
+      </c>
+      <c r="E58">
+        <v>75</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>10</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
+      <c r="N58">
+        <v>10</v>
+      </c>
+      <c r="O58">
+        <v>2</v>
+      </c>
+      <c r="Q58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1440</v>
+      </c>
+      <c r="D59">
+        <f>D58+5</f>
+        <v>76</v>
+      </c>
+      <c r="E59">
+        <v>80</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>10</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>4</v>
+      </c>
+      <c r="N59">
+        <v>10</v>
+      </c>
+      <c r="O59">
+        <v>2</v>
+      </c>
+      <c r="Q59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1440</v>
+      </c>
+      <c r="D60">
+        <f>D59+5</f>
+        <v>81</v>
+      </c>
+      <c r="E60">
+        <v>85</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>10</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>5</v>
+      </c>
+      <c r="N60">
+        <v>10</v>
+      </c>
+      <c r="O60">
+        <v>2</v>
+      </c>
+      <c r="Q60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1440</v>
+      </c>
+      <c r="D61">
+        <f>D60+5</f>
+        <v>86</v>
+      </c>
+      <c r="E61">
+        <v>90</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>10</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>6</v>
+      </c>
+      <c r="N61">
+        <v>10</v>
+      </c>
+      <c r="O61">
+        <v>2</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1440</v>
+      </c>
+      <c r="D62">
+        <f>D61+5</f>
+        <v>91</v>
+      </c>
+      <c r="E62">
+        <v>95</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>10</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>5</v>
+      </c>
+      <c r="N62">
+        <v>10</v>
+      </c>
+      <c r="O62">
+        <v>2</v>
+      </c>
+      <c r="Q62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1440</v>
+      </c>
+      <c r="D63">
+        <f>D62+5</f>
+        <v>96</v>
+      </c>
+      <c r="E63">
+        <v>100</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>10</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>6</v>
+      </c>
+      <c r="N63">
+        <v>10</v>
+      </c>
+      <c r="O63">
+        <v>2</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1440</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>10</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>10</v>
+      </c>
+      <c r="O64">
+        <v>2</v>
+      </c>
+      <c r="Q64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1440</v>
+      </c>
+      <c r="D65">
+        <f>D64+5</f>
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>10</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>10</v>
+      </c>
+      <c r="O65">
+        <v>2</v>
+      </c>
+      <c r="Q65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1440</v>
+      </c>
+      <c r="D66">
+        <f>D65+5</f>
+        <v>11</v>
+      </c>
+      <c r="E66">
+        <v>15</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>10</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>3</v>
+      </c>
+      <c r="N66">
+        <v>10</v>
+      </c>
+      <c r="O66">
+        <v>2</v>
+      </c>
+      <c r="Q66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1440</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D75" si="6">D66+5</f>
+        <v>16</v>
+      </c>
+      <c r="E67">
+        <v>20</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>10</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>4</v>
+      </c>
+      <c r="N67">
+        <v>10</v>
+      </c>
+      <c r="O67">
+        <v>2</v>
+      </c>
+      <c r="Q67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1440</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="E68">
+        <v>25</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>10</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>5</v>
+      </c>
+      <c r="N68">
+        <v>10</v>
+      </c>
+      <c r="O68">
+        <v>2</v>
+      </c>
+      <c r="Q68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1440</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="E69">
+        <v>30</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>10</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>6</v>
+      </c>
+      <c r="N69">
+        <v>10</v>
+      </c>
+      <c r="O69">
+        <v>2</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1440</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="E70">
+        <v>35</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>10</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>10</v>
+      </c>
+      <c r="O70">
+        <v>2</v>
+      </c>
+      <c r="Q70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1440</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="E71">
+        <v>40</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>10</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>10</v>
+      </c>
+      <c r="O71">
+        <v>2</v>
+      </c>
+      <c r="Q71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1440</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="E72">
+        <v>45</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>10</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>3</v>
+      </c>
+      <c r="N72">
+        <v>10</v>
+      </c>
+      <c r="O72">
+        <v>2</v>
+      </c>
+      <c r="Q72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1440</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="E73">
+        <v>50</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>10</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>4</v>
+      </c>
+      <c r="N73">
+        <v>10</v>
+      </c>
+      <c r="O73">
+        <v>2</v>
+      </c>
+      <c r="Q73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1440</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="E74">
+        <v>55</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>10</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>5</v>
+      </c>
+      <c r="N74">
+        <v>10</v>
+      </c>
+      <c r="O74">
+        <v>2</v>
+      </c>
+      <c r="Q74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1440</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="E75">
+        <v>60</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>10</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>6</v>
+      </c>
+      <c r="N75">
+        <v>10</v>
+      </c>
+      <c r="O75">
+        <v>2</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1440</v>
+      </c>
+      <c r="D76">
+        <f>D75+5</f>
+        <v>61</v>
+      </c>
+      <c r="E76">
+        <v>65</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>10</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>10</v>
+      </c>
+      <c r="O76">
+        <v>2</v>
+      </c>
+      <c r="Q76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>1440</v>
+      </c>
+      <c r="D77">
+        <f>D76+5</f>
+        <v>66</v>
+      </c>
+      <c r="E77">
+        <v>70</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>10</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>10</v>
+      </c>
+      <c r="O77">
+        <v>2</v>
+      </c>
+      <c r="Q77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>1440</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ref="D78" si="7">D77+5</f>
+        <v>71</v>
+      </c>
+      <c r="E78">
+        <v>75</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>10</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <v>10</v>
+      </c>
+      <c r="O78">
+        <v>2</v>
+      </c>
+      <c r="Q78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1440</v>
+      </c>
+      <c r="D79">
+        <f>D78+5</f>
+        <v>76</v>
+      </c>
+      <c r="E79">
+        <v>80</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>10</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>4</v>
+      </c>
+      <c r="N79">
+        <v>10</v>
+      </c>
+      <c r="O79">
+        <v>2</v>
+      </c>
+      <c r="Q79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1440</v>
+      </c>
+      <c r="D80">
+        <f>D79+5</f>
+        <v>81</v>
+      </c>
+      <c r="E80">
+        <v>85</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>10</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>5</v>
+      </c>
+      <c r="N80">
+        <v>10</v>
+      </c>
+      <c r="O80">
+        <v>2</v>
+      </c>
+      <c r="Q80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>1440</v>
+      </c>
+      <c r="D81">
+        <f>D80+5</f>
+        <v>86</v>
+      </c>
+      <c r="E81">
+        <v>90</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>10</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>6</v>
+      </c>
+      <c r="N81">
+        <v>10</v>
+      </c>
+      <c r="O81">
+        <v>2</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1440</v>
+      </c>
+      <c r="D82">
+        <f>D81+5</f>
+        <v>91</v>
+      </c>
+      <c r="E82">
+        <v>95</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>10</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>5</v>
+      </c>
+      <c r="N82">
+        <v>10</v>
+      </c>
+      <c r="O82">
+        <v>2</v>
+      </c>
+      <c r="Q82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>1440</v>
+      </c>
+      <c r="D83">
+        <f>D82+5</f>
+        <v>96</v>
+      </c>
+      <c r="E83">
+        <v>100</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>10</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>6</v>
+      </c>
+      <c r="N83">
+        <v>10</v>
+      </c>
+      <c r="O83">
+        <v>2</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1440</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>10</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>10</v>
+      </c>
+      <c r="O84">
+        <v>2</v>
+      </c>
+      <c r="Q84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>1440</v>
+      </c>
+      <c r="D85">
+        <f>D84+5</f>
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>10</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>10</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>10</v>
+      </c>
+      <c r="O85">
+        <v>2</v>
+      </c>
+      <c r="Q85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1440</v>
+      </c>
+      <c r="D86">
+        <f>D85+5</f>
+        <v>11</v>
+      </c>
+      <c r="E86">
+        <v>15</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>10</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>3</v>
+      </c>
+      <c r="N86">
+        <v>10</v>
+      </c>
+      <c r="O86">
+        <v>2</v>
+      </c>
+      <c r="Q86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1440</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ref="D87:D95" si="8">D86+5</f>
+        <v>16</v>
+      </c>
+      <c r="E87">
+        <v>20</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>10</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>4</v>
+      </c>
+      <c r="N87">
+        <v>10</v>
+      </c>
+      <c r="O87">
+        <v>2</v>
+      </c>
+      <c r="Q87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1440</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="E88">
+        <v>25</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>10</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>5</v>
+      </c>
+      <c r="N88">
+        <v>10</v>
+      </c>
+      <c r="O88">
+        <v>2</v>
+      </c>
+      <c r="Q88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1440</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="E89">
+        <v>30</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>10</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>6</v>
+      </c>
+      <c r="N89">
+        <v>10</v>
+      </c>
+      <c r="O89">
+        <v>2</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1440</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="E90">
+        <v>35</v>
+      </c>
+      <c r="F90">
+        <v>10</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>10</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>10</v>
+      </c>
+      <c r="O90">
+        <v>2</v>
+      </c>
+      <c r="Q90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1440</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="E91">
+        <v>40</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>10</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>10</v>
+      </c>
+      <c r="O91">
+        <v>2</v>
+      </c>
+      <c r="Q91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1440</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="E92">
+        <v>45</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>10</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+      <c r="N92">
+        <v>10</v>
+      </c>
+      <c r="O92">
+        <v>2</v>
+      </c>
+      <c r="Q92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>1440</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="E93">
+        <v>50</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>10</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>4</v>
+      </c>
+      <c r="N93">
+        <v>10</v>
+      </c>
+      <c r="O93">
+        <v>2</v>
+      </c>
+      <c r="Q93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1440</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="E94">
+        <v>55</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>10</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>5</v>
+      </c>
+      <c r="N94">
+        <v>10</v>
+      </c>
+      <c r="O94">
+        <v>2</v>
+      </c>
+      <c r="Q94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1440</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="E95">
+        <v>60</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>10</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>6</v>
+      </c>
+      <c r="N95">
+        <v>10</v>
+      </c>
+      <c r="O95">
+        <v>2</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>1440</v>
+      </c>
+      <c r="D96">
+        <f>D95+5</f>
+        <v>61</v>
+      </c>
+      <c r="E96">
+        <v>65</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>10</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>10</v>
+      </c>
+      <c r="O96">
+        <v>2</v>
+      </c>
+      <c r="Q96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1440</v>
+      </c>
+      <c r="D97">
+        <f>D96+5</f>
+        <v>66</v>
+      </c>
+      <c r="E97">
+        <v>70</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>10</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97">
+        <v>10</v>
+      </c>
+      <c r="O97">
+        <v>2</v>
+      </c>
+      <c r="Q97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>1440</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ref="D98" si="9">D97+5</f>
+        <v>71</v>
+      </c>
+      <c r="E98">
+        <v>75</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>10</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>3</v>
+      </c>
+      <c r="N98">
+        <v>10</v>
+      </c>
+      <c r="O98">
+        <v>2</v>
+      </c>
+      <c r="Q98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1440</v>
+      </c>
+      <c r="D99">
+        <f>D98+5</f>
+        <v>76</v>
+      </c>
+      <c r="E99">
+        <v>80</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>10</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>4</v>
+      </c>
+      <c r="N99">
+        <v>10</v>
+      </c>
+      <c r="O99">
+        <v>2</v>
+      </c>
+      <c r="Q99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1440</v>
+      </c>
+      <c r="D100">
+        <f>D99+5</f>
+        <v>81</v>
+      </c>
+      <c r="E100">
+        <v>85</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>10</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <v>5</v>
+      </c>
+      <c r="N100">
+        <v>10</v>
+      </c>
+      <c r="O100">
+        <v>2</v>
+      </c>
+      <c r="Q100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>1440</v>
+      </c>
+      <c r="D101">
+        <f>D100+5</f>
+        <v>86</v>
+      </c>
+      <c r="E101">
+        <v>90</v>
+      </c>
+      <c r="F101">
+        <v>10</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>10</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>6</v>
+      </c>
+      <c r="N101">
+        <v>10</v>
+      </c>
+      <c r="O101">
+        <v>2</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1440</v>
+      </c>
+      <c r="D102">
+        <f>D101+5</f>
+        <v>91</v>
+      </c>
+      <c r="E102">
+        <v>95</v>
+      </c>
+      <c r="F102">
+        <v>10</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>10</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>5</v>
+      </c>
+      <c r="N102">
+        <v>10</v>
+      </c>
+      <c r="O102">
+        <v>2</v>
+      </c>
+      <c r="Q102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1440</v>
+      </c>
+      <c r="D103">
+        <f>D102+5</f>
+        <v>96</v>
+      </c>
+      <c r="E103">
+        <v>100</v>
+      </c>
+      <c r="F103">
+        <v>10</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>10</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="M103">
+        <v>6</v>
+      </c>
+      <c r="N103">
+        <v>10</v>
+      </c>
+      <c r="O103">
+        <v>2</v>
+      </c>
+      <c r="Q103">
         <v>1</v>
       </c>
     </row>
@@ -981,26 +5212,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="2"/>
   <pixelatorList sheetStid="3"/>
 </pixelators>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="2" master=""/>
   <rangeList sheetStid="3" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1008,49 +5250,38 @@
 </settings>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>